--- a/src/main/resources/xlsx/cadre/stat_cadre.xlsx
+++ b/src/main/resources/xlsx/cadre/stat_cadre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中级及以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面貌政治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学位分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +170,30 @@
   </si>
   <si>
     <t>平均年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中（初）级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称 分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -401,11 +413,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,6 +491,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,12 +560,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,10 +572,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:N20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -859,112 +908,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="A1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="A2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -976,11 +1025,11 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -994,11 +1043,11 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1012,11 +1061,11 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="26"/>
+    <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1030,12 +1079,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="18"/>
@@ -1050,10 +1099,10 @@
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
@@ -1068,12 +1117,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
-        <v>36</v>
+    <row r="11" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="18"/>
@@ -1088,66 +1137,66 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
       <c r="B13" s="14" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="18"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="8"/>
       <c r="J13" s="18"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="18"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="8"/>
       <c r="J14" s="18"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
       <c r="B15" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="18"/>
@@ -1162,10 +1211,10 @@
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
       <c r="B16" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="18"/>
@@ -1180,10 +1229,10 @@
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="35"/>
       <c r="B17" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="18"/>
@@ -1198,10 +1247,10 @@
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="35"/>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="18"/>
@@ -1216,10 +1265,10 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
       <c r="B19" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="18"/>
@@ -1234,48 +1283,48 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="39"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="14" t="s">
+    <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="48"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="B22" s="14" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1290,10 +1339,10 @@
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
       <c r="B23" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="18"/>
@@ -1308,12 +1357,10 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33" t="s">
-        <v>37</v>
-      </c>
+    <row r="24" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
       <c r="B24" s="14" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
@@ -1328,28 +1375,30 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="8"/>
+    <row r="25" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
+      <c r="B25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="18"/>
@@ -1364,11 +1413,11 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="30"/>
+    <row r="27" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="18"/>
       <c r="E27" s="6"/>
@@ -1382,51 +1431,218 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="18"/>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="18"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="9"/>
     </row>
+    <row r="29" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="26">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/stat_cadre.xlsx
+++ b/src/main/resources/xlsx/cadre/stat_cadre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,176 +24,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-35岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36-40岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41-45岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-50岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51-55岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55岁以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁及以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主党派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专职干部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比率</t>
+  </si>
+  <si>
+    <t>比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副处</t>
+  </si>
+  <si>
+    <t>正处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘任制（无级别）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：百分比按四舍五入取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school情况统计表type</t>
+  </si>
+  <si>
+    <t>双肩挑干部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中（初）级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称 分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>硕士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31-35岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36-40岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41-45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46-50岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51-55岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55岁以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁及以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民主党派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专职干部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比率</t>
-  </si>
-  <si>
-    <t>比率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副处</t>
-  </si>
-  <si>
-    <t>正处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聘任制（无级别）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学位分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：百分比按四舍五入取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school情况统计表type</t>
-  </si>
-  <si>
-    <t>双肩挑干部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中（初）级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称 分布</t>
+    <t>学位 分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,12 +516,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -536,9 +570,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,24 +589,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +898,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -908,112 +921,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="A1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="A2" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -1026,10 +1039,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="40"/>
+      <c r="A6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1044,10 +1057,10 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="40"/>
+      <c r="A7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="49"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1062,10 +1075,10 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="36"/>
+      <c r="A8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1080,11 +1093,11 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="18"/>
@@ -1100,9 +1113,9 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
@@ -1118,11 +1131,11 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>40</v>
+      <c r="A11" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="18"/>
@@ -1138,9 +1151,9 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="18"/>
@@ -1156,9 +1169,9 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="18"/>
@@ -1174,11 +1187,11 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>23</v>
+      <c r="A14" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="18"/>
@@ -1194,9 +1207,9 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="18"/>
@@ -1212,9 +1225,9 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="18"/>
@@ -1230,9 +1243,9 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="18"/>
@@ -1248,9 +1261,9 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="18"/>
@@ -1266,9 +1279,9 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="18"/>
@@ -1284,9 +1297,9 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -1302,29 +1315,29 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="48"/>
+      <c r="A21" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>45</v>
+      <c r="A22" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1340,9 +1353,9 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="18"/>
@@ -1358,9 +1371,9 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
@@ -1376,9 +1389,9 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="18"/>
@@ -1394,8 +1407,8 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
+      <c r="A26" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>1</v>
@@ -1414,9 +1427,9 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="14" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="18"/>
@@ -1432,9 +1445,9 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="18"/>
@@ -1450,61 +1463,63 @@
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="28"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="18"/>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="18"/>
       <c r="K30" s="6"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="19"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="22"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
+      <c r="A32" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="9"/>
@@ -1520,7 +1535,7 @@
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
       <c r="D33" s="9"/>
@@ -1536,7 +1551,7 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
       <c r="D34" s="9"/>
@@ -1552,7 +1567,7 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="20"/>
       <c r="C35" s="22"/>
       <c r="D35" s="9"/>
@@ -1568,7 +1583,7 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
       <c r="D36" s="9"/>
@@ -1584,7 +1599,7 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="9"/>
@@ -1600,7 +1615,7 @@
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="20"/>
       <c r="C38" s="22"/>
       <c r="D38" s="9"/>
@@ -1617,17 +1632,7 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A1:N1"/>
@@ -1636,13 +1641,23 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
